--- a/Documentation Source/source/BOMs/hardware bom.xlsx
+++ b/Documentation Source/source/BOMs/hardware bom.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lustiga/Dropbox (HHMI)/Code/karpova_lab/other/Nosepoke_X/Documentation Source/source/BOMs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lustiga/Dropbox (HHMI)/Code/karpova_lab/other/nosepoke/Documentation Source/source/BOMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4AE256-E8AB-4846-BEF2-C10CE286F731}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503692CF-F37C-7240-B792-48751CECF72B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24000" yWindow="13500" windowWidth="38400" windowHeight="23540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>link</t>
   </si>
@@ -45,9 +44,6 @@
     <t>QTY</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Part Number</t>
   </si>
   <si>
@@ -75,9 +71,6 @@
     <t>Backside PCB</t>
   </si>
   <si>
-    <t>Outer PCB</t>
-  </si>
-  <si>
     <t>https://www.mcmaster.com/7880t137</t>
   </si>
   <si>
@@ -166,6 +159,9 @@
   </si>
   <si>
     <t>Nosepoke v 1.12</t>
+  </si>
+  <si>
+    <t>Perimeter PCB</t>
   </si>
 </sst>
 </file>
@@ -246,7 +242,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -261,9 +257,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -568,514 +561,469 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="13" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="22" width="10.83203125" style="1"/>
-    <col min="23" max="23" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="73.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="10.83203125" style="1"/>
+    <col min="22" max="22" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D10" si="0">CONCATENATE("`",F2," &lt;",G2,"&gt;`_")</f>
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f t="shared" ref="C2:C10" si="0">CONCATENATE("`",E2," &lt;",F2,"&gt;`_")</f>
         <v>`Nosepoke v 1.12 &lt;https://oshpark.com/shared_projects/nqotsSjh&gt;`_</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6">
-        <v>3.25</v>
-      </c>
-      <c r="D3" s="1" t="str">
+      <c r="C3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>`Emitter/Detector v1.2 &lt;https://oshpark.com/shared_projects/JIBPA1cP&gt;`_</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2.81</v>
-      </c>
-      <c r="D4" s="1" t="str">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>`7880t137 &lt;https://www.mcmaster.com/7880t137&gt;`_</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.64</v>
-      </c>
-      <c r="D5" s="1" t="str">
+      <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>`91290A100 &lt;https://www.mcmaster.com/91290a100&gt;`_</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>CONCATENATE("`",E6," &lt;",F6,"&gt;`_")</f>
+        <v>`FJX2222ATFCT-ND &lt;https://www.digikey.com/products/en?keywords=fjx2222atfct&gt;`_</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" ref="C7" si="1">CONCATENATE("`",E7," &lt;",F7,"&gt;`_")</f>
+        <v>`WM3553CT-ND &lt;https://www.digikey.com/products/en?keywords=WM3553CT-ND&gt;`_</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>CONCATENATE("`",E8," &lt;",F8,"&gt;`_")</f>
+        <v>`1080-1593-1-ND &lt;https://www.digikey.com/products/en?keywords=1080-1593-1&gt;`_</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.31</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f>CONCATENATE("`",F6," &lt;",G6,"&gt;`_")</f>
-        <v>`FJX2222ATFCT-ND &lt;https://www.digikey.com/products/en?keywords=fjx2222atfct&gt;`_</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1.33</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" ref="D7" si="1">CONCATENATE("`",F7," &lt;",G7,"&gt;`_")</f>
-        <v>`WM3553CT-ND &lt;https://www.digikey.com/products/en?keywords=WM3553CT-ND&gt;`_</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.72</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f>CONCATENATE("`",F8," &lt;",G8,"&gt;`_")</f>
-        <v>`1080-1593-1-ND &lt;https://www.digikey.com/products/en?keywords=1080-1593-1&gt;`_</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.38</v>
-      </c>
-      <c r="D9" s="1" t="str">
+      <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>`1080-1357-1-ND &lt;https://www.digikey.com/products/en?keywords=1080-1357-1&gt;`_</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="D10" s="1" t="str">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>`1080-1386-1-ND &lt;https://www.digikey.com/products/en?keywords=1080-1386-1&gt;`_</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="X13" s="8"/>
-      <c r="Z13" s="9"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="W13" s="7"/>
+      <c r="Y13" s="8"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
-      <c r="C14" s="6"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C16" s="6"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="X16" s="10"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C17" s="6"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C18" s="6"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C19" s="6"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C20" s="6"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C21" s="6"/>
-      <c r="G21" s="5"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="W16" s="9"/>
+    </row>
+    <row r="17" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="F21" s="5"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="24" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
       <c r="T24"/>
       <c r="U24"/>
-      <c r="V24"/>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
       <c r="T25"/>
       <c r="U25"/>
-      <c r="V25"/>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="O26"/>
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26"/>
       <c r="S26"/>
       <c r="T26"/>
       <c r="U26"/>
-      <c r="V26"/>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="O27"/>
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27"/>
       <c r="T27"/>
       <c r="U27"/>
-      <c r="V27"/>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28"/>
       <c r="S28"/>
       <c r="T28"/>
       <c r="U28"/>
-      <c r="V28"/>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29"/>
       <c r="S29"/>
       <c r="T29"/>
       <c r="U29"/>
-      <c r="V29"/>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="O30"/>
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30"/>
       <c r="S30"/>
       <c r="T30"/>
       <c r="U30"/>
-      <c r="V30"/>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="O31"/>
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31"/>
       <c r="S31"/>
       <c r="T31"/>
       <c r="U31"/>
-      <c r="V31"/>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
       <c r="R32"/>
       <c r="S32"/>
       <c r="T32"/>
       <c r="U32"/>
-      <c r="V32"/>
-    </row>
-    <row r="33" spans="12:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33"/>
       <c r="S33"/>
       <c r="T33"/>
       <c r="U33"/>
-      <c r="V33"/>
-    </row>
-    <row r="34" spans="12:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34"/>
       <c r="S34"/>
       <c r="T34"/>
       <c r="U34"/>
-      <c r="V34"/>
-    </row>
-    <row r="35" spans="12:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35"/>
       <c r="T35"/>
       <c r="U35"/>
-      <c r="V35"/>
-    </row>
-    <row r="36" spans="12:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="O36"/>
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36"/>
       <c r="T36"/>
       <c r="U36"/>
-      <c r="V36"/>
-    </row>
-    <row r="37" spans="12:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37"/>
       <c r="T37"/>
       <c r="U37"/>
-      <c r="V37"/>
-    </row>
-    <row r="38" spans="12:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
       <c r="R38"/>
       <c r="S38"/>
       <c r="T38"/>
       <c r="U38"/>
-      <c r="V38"/>
-    </row>
-    <row r="39" spans="12:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
       <c r="R39"/>
       <c r="S39"/>
       <c r="T39"/>
       <c r="U39"/>
-      <c r="V39"/>
-    </row>
-    <row r="40" spans="12:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
       <c r="R40"/>
       <c r="S40"/>
       <c r="T40"/>
       <c r="U40"/>
-      <c r="V40"/>
-    </row>
-    <row r="41" spans="12:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
       <c r="N41"/>
@@ -1086,9 +1034,9 @@
       <c r="S41"/>
       <c r="T41"/>
       <c r="U41"/>
-      <c r="V41"/>
-    </row>
-    <row r="42" spans="12:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42"/>
@@ -1099,9 +1047,9 @@
       <c r="S42"/>
       <c r="T42"/>
       <c r="U42"/>
-      <c r="V42"/>
-    </row>
-    <row r="43" spans="12:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
@@ -1112,27 +1060,9 @@
       <c r="S43"/>
       <c r="T43"/>
       <c r="U43"/>
-      <c r="V43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24DAA3A-9647-4447-9F85-9C1DC1BD4416}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>